--- a/data/trans_camb/P45C_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,1</t>
+          <t>-0,42; 5,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 0,2</t>
+          <t>-5,0; 0,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 10,81</t>
+          <t>3,21; 10,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,06</t>
+          <t>0,83; 5,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,65</t>
+          <t>-2,44; 1,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,79</t>
+          <t>0,4; 4,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,32</t>
+          <t>1,07; 4,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 0,49</t>
+          <t>-2,82; 0,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,17</t>
+          <t>2,28; 6,14</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 66,51</t>
+          <t>-4,12; 67,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,98; 4,1</t>
+          <t>-49,33; 3,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,51; 130,87</t>
+          <t>32,53; 133,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,48; 83,86</t>
+          <t>9,96; 86,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 27,17</t>
+          <t>-32,03; 30,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 85,91</t>
+          <t>4,73; 78,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,27; 63,3</t>
+          <t>11,86; 63,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 7,06</t>
+          <t>-33,11; 5,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,96; 87,88</t>
+          <t>26,59; 85,72</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,23</t>
+          <t>-2,09; 3,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; -1,07</t>
+          <t>-6,14; -1,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 2,19</t>
+          <t>-3,85; 1,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,27</t>
+          <t>-1,79; 3,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,22</t>
+          <t>-1,92; 3,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,81</t>
+          <t>-3,87; 1,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,57</t>
+          <t>-1,08; 2,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,15</t>
+          <t>-3,12; 0,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 1,0</t>
+          <t>-2,81; 1,29</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 18,68</t>
+          <t>-10,32; 19,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,88; -5,8</t>
+          <t>-30,32; -6,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 12,09</t>
+          <t>-18,22; 11,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 23,3</t>
+          <t>-10,85; 24,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 23,85</t>
+          <t>-11,61; 22,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 12,81</t>
+          <t>-23,51; 10,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 16,08</t>
+          <t>-6,17; 16,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 0,74</t>
+          <t>-17,03; 1,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 6,18</t>
+          <t>-15,64; 8,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 9,15</t>
+          <t>-1,89; 8,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 1,99</t>
+          <t>-6,81; 2,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 0,41</t>
+          <t>-8,42; 0,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 1,36</t>
+          <t>-8,39; 1,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 3,49</t>
+          <t>-6,23; 3,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -0,87</t>
+          <t>-9,69; -0,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 3,69</t>
+          <t>-3,53; 3,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 1,9</t>
+          <t>-4,98; 1,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; -1,43</t>
+          <t>-7,44; -1,42</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 58,34</t>
+          <t>-9,12; 56,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 12,88</t>
+          <t>-33,06; 14,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,75; 4,13</t>
+          <t>-40,53; 2,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,13; 8,56</t>
+          <t>-39,3; 9,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 21,87</t>
+          <t>-28,74; 22,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,88; -5,12</t>
+          <t>-43,56; -4,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 22,46</t>
+          <t>-17,23; 23,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 12,11</t>
+          <t>-24,53; 11,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,29; -8,66</t>
+          <t>-36,69; -8,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 3,87</t>
+          <t>0,0; 3,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; -0,47</t>
+          <t>-3,83; -0,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,38</t>
+          <t>-0,63; 3,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,55</t>
+          <t>-0,55; 2,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,78</t>
+          <t>-0,59; 2,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,34</t>
+          <t>-0,91; 2,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,71</t>
+          <t>0,32; 2,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,71</t>
+          <t>-1,72; 0,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,15</t>
+          <t>-0,36; 2,29</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,8; 26,51</t>
+          <t>-0,01; 25,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,87; -2,9</t>
+          <t>-23,41; -3,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 23,14</t>
+          <t>-3,77; 21,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 21,8</t>
+          <t>-4,31; 22,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 23,42</t>
+          <t>-4,34; 23,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 20,2</t>
+          <t>-7,2; 20,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,05; 20,35</t>
+          <t>2,15; 20,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 5,23</t>
+          <t>-11,68; 4,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 16,2</t>
+          <t>-2,47; 16,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 5,22</t>
+          <t>-0,36; 4,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 0,37</t>
+          <t>-4,95; 0,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 10,59</t>
+          <t>3,08; 10,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,05</t>
+          <t>0,88; 5,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,83</t>
+          <t>-2,16; 1,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,66</t>
+          <t>0,45; 4,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,46</t>
+          <t>1,04; 4,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 0,4</t>
+          <t>-2,81; 0,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,14</t>
+          <t>2,12; 5,92</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 67,53</t>
+          <t>-4,09; 63,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,33; 3,5</t>
+          <t>-47,98; 2,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,53; 133,24</t>
+          <t>29,85; 129,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 86,93</t>
+          <t>10,67; 89,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,03; 30,1</t>
+          <t>-28,98; 33,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,73; 78,19</t>
+          <t>5,18; 86,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 63,49</t>
+          <t>12,59; 61,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 5,92</t>
+          <t>-33,93; 6,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,59; 85,72</t>
+          <t>24,39; 82,11</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,27</t>
+          <t>-1,91; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; -1,17</t>
+          <t>-6,03; -1,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,97</t>
+          <t>-4,18; 1,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,32</t>
+          <t>-1,86; 3,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,05</t>
+          <t>-1,73; 3,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 1,58</t>
+          <t>-3,58; 1,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,68</t>
+          <t>-0,95; 2,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,25</t>
+          <t>-3,35; 0,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,29</t>
+          <t>-3,0; 1,06</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 19,09</t>
+          <t>-9,55; 18,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,32; -6,72</t>
+          <t>-30,0; -5,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 11,28</t>
+          <t>-20,3; 10,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 24,44</t>
+          <t>-11,4; 22,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 22,22</t>
+          <t>-10,38; 23,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 10,86</t>
+          <t>-21,88; 12,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 16,45</t>
+          <t>-5,03; 16,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 1,66</t>
+          <t>-18,52; 2,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 8,01</t>
+          <t>-16,63; 6,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 8,97</t>
+          <t>-0,97; 9,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 2,09</t>
+          <t>-7,22; 2,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 0,31</t>
+          <t>-8,48; 0,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 1,55</t>
+          <t>-8,68; 1,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 3,87</t>
+          <t>-6,16; 3,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -0,91</t>
+          <t>-9,42; -1,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 3,83</t>
+          <t>-3,45; 3,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 1,77</t>
+          <t>-4,75; 1,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; -1,42</t>
+          <t>-7,65; -1,44</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 56,61</t>
+          <t>-4,95; 60,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 14,12</t>
+          <t>-35,26; 13,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 2,78</t>
+          <t>-42,0; 2,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 9,44</t>
+          <t>-40,88; 8,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 22,88</t>
+          <t>-28,45; 23,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,56; -4,53</t>
+          <t>-43,69; -6,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 23,03</t>
+          <t>-17,06; 21,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 11,06</t>
+          <t>-23,66; 9,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,69; -8,7</t>
+          <t>-37,37; -8,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,03; 3,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; -0,49</t>
+          <t>-4,13; -0,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,16</t>
+          <t>-0,76; 3,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,56</t>
+          <t>-0,57; 2,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,74</t>
+          <t>-0,53; 2,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,38</t>
+          <t>-0,94; 2,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,75</t>
+          <t>0,27; 2,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,57</t>
+          <t>-1,77; 0,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,29</t>
+          <t>-0,42; 2,39</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 25,9</t>
+          <t>0,04; 25,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,41; -3,15</t>
+          <t>-24,51; -3,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 21,33</t>
+          <t>-4,55; 21,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 22,32</t>
+          <t>-4,48; 21,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 23,92</t>
+          <t>-3,94; 24,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 20,47</t>
+          <t>-7,04; 21,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,15; 20,61</t>
+          <t>1,76; 19,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 4,32</t>
+          <t>-12,11; 4,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 16,68</t>
+          <t>-2,91; 17,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>3,82</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 10,07</t>
+          <t>2,56; 9,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,91</t>
+          <t>0,38; 4,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,92</t>
+          <t>1,9; 5,68</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>73,44%</t>
+          <t>66,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>52,32%</t>
+          <t>49,48%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,85; 129,45</t>
+          <t>24,08; 120,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 86,86</t>
+          <t>4,52; 85,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,39; 82,11</t>
+          <t>22,26; 79,41</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-2,67</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,9</t>
+          <t>-9,12; 0,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 1,79</t>
+          <t>-5,97; 0,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,06</t>
+          <t>-5,72; -0,53</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,96%</t>
+          <t>-15,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,22%</t>
+          <t>-14,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,09%</t>
+          <t>-15,54%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 10,6</t>
+          <t>-43,44; 0,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 12,55</t>
+          <t>-37,1; 3,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 6,58</t>
+          <t>-32,36; -2,93</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>-4,71</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 0,31</t>
+          <t>-8,71; 0,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -1,13</t>
+          <t>-9,7; -1,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,65; -1,44</t>
+          <t>-7,8; -1,67</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,04%</t>
+          <t>-23,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,36%</t>
+          <t>-27,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-24,15%</t>
+          <t>-25,46%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,0; 2,39</t>
+          <t>-43,39; 1,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,69; -6,79</t>
+          <t>-44,45; -8,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,37; -8,07</t>
+          <t>-38,87; -9,68</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,2</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,15</t>
+          <t>-3,75; 1,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,55</t>
+          <t>-2,39; 1,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,39</t>
+          <t>-2,3; 1,33</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>-1,44%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 21,24</t>
+          <t>-23,35; 11,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 21,85</t>
+          <t>-18,15; 15,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 17,75</t>
+          <t>-15,55; 9,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,91</t>
+          <t>-0,53; 5,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 0,01</t>
+          <t>-5,01; 0,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 9,38</t>
+          <t>2,87; 9,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,08</t>
+          <t>0,58; 5,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,94</t>
+          <t>-2,37; 1,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,8</t>
+          <t>0,48; 4,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,2</t>
+          <t>0,97; 4,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,47</t>
+          <t>-2,84; 0,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,68</t>
+          <t>2,0; 5,81</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 63,28</t>
+          <t>-5,67; 64,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 2,27</t>
+          <t>-49,01; 1,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,08; 120,64</t>
+          <t>28,27; 124,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 89,46</t>
+          <t>9,17; 90,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 33,47</t>
+          <t>-31,69; 30,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 85,26</t>
+          <t>5,99; 79,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,59; 61,19</t>
+          <t>11,53; 62,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 6,75</t>
+          <t>-32,61; 5,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,26; 79,41</t>
+          <t>21,76; 83,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 3,35</t>
+          <t>-1,82; 3,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,03; -1,01</t>
+          <t>-5,97; -0,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 0,07</t>
+          <t>-8,05; 0,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,23</t>
+          <t>-1,75; 3,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,25</t>
+          <t>-1,73; 3,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 0,55</t>
+          <t>-6,29; 0,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,67</t>
+          <t>-0,96; 2,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 0,34</t>
+          <t>-3,35; 0,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -0,53</t>
+          <t>-6,01; -0,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 18,4</t>
+          <t>-9,12; 19,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,0; -5,86</t>
+          <t>-29,18; -4,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,44; 0,54</t>
+          <t>-40,2; 1,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 22,82</t>
+          <t>-10,59; 24,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 23,34</t>
+          <t>-10,39; 23,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,1; 3,62</t>
+          <t>-37,89; 3,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 16,61</t>
+          <t>-5,25; 16,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 2,12</t>
+          <t>-17,92; 0,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,36; -2,93</t>
+          <t>-33,97; -2,03</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 9,57</t>
+          <t>-1,05; 9,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 2,18</t>
+          <t>-7,32; 2,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,24</t>
+          <t>-8,46; 0,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 1,27</t>
+          <t>-8,36; 1,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 3,68</t>
+          <t>-5,62; 4,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -1,42</t>
+          <t>-9,37; -0,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 3,57</t>
+          <t>-3,5; 3,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,59</t>
+          <t>-5,1; 1,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -1,67</t>
+          <t>-7,9; -1,73</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 60,35</t>
+          <t>-5,91; 58,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 13,87</t>
+          <t>-37,22; 15,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,39; 1,55</t>
+          <t>-41,37; 0,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 8,02</t>
+          <t>-38,41; 10,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 23,36</t>
+          <t>-26,38; 25,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,45; -8,7</t>
+          <t>-43,06; -3,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 21,02</t>
+          <t>-17,35; 22,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 9,3</t>
+          <t>-24,94; 10,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,87; -9,68</t>
+          <t>-38,37; -10,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,74</t>
+          <t>0,11; 3,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,51</t>
+          <t>-3,87; -0,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,83</t>
+          <t>-3,74; 1,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,61</t>
+          <t>-0,71; 2,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,89</t>
+          <t>-0,42; 2,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,89</t>
+          <t>-2,6; 1,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,64</t>
+          <t>0,33; 2,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,61</t>
+          <t>-1,71; 0,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,33</t>
+          <t>-2,19; 1,3</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,04; 25,19</t>
+          <t>0,47; 25,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,51; -3,58</t>
+          <t>-23,23; -2,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 11,87</t>
+          <t>-22,96; 12,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 21,9</t>
+          <t>-5,6; 22,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 24,65</t>
+          <t>-3,11; 23,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 15,74</t>
+          <t>-20,55; 12,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,76; 19,3</t>
+          <t>2,25; 19,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 4,52</t>
+          <t>-11,58; 5,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 9,71</t>
+          <t>-14,83; 9,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Estudios-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
